--- a/run_name.xlsx
+++ b/run_name.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.badzohreh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.badzohreh\Desktop\university\swin github\001\tensorized_swin_transformer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48EF918-80D2-4525-BABC-7AF0ACD8914E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90DABBE9-FDCC-4B42-B563-6532F82E5F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BC9EC6D8-3C02-4C26-B296-CC6EE85B1941}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="45">
   <si>
     <t>Test Case</t>
   </si>
@@ -156,13 +156,28 @@
   </si>
   <si>
     <t>cifar100</t>
+  </si>
+  <si>
+    <t>parameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> yes </t>
+  </si>
+  <si>
+    <t>trl block 1 , 2 , 3 ,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,13 +185,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.14999847407452621"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -191,8 +231,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8227B274-9E33-42F0-9ADE-307457E422C3}">
-  <dimension ref="A1:S37"/>
+  <dimension ref="A1:T68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -541,13 +586,16 @@
     <col min="4" max="4" width="15.109375" customWidth="1"/>
     <col min="5" max="5" width="10.109375" customWidth="1"/>
     <col min="6" max="6" width="14.88671875" customWidth="1"/>
-    <col min="8" max="10" width="14.21875" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" customWidth="1"/>
-    <col min="19" max="19" width="38.88671875" customWidth="1"/>
+    <col min="8" max="8" width="14.21875" customWidth="1"/>
+    <col min="9" max="10" width="24.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.21875" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" customWidth="1"/>
+    <col min="16" max="16" width="28.6640625" customWidth="1"/>
+    <col min="20" max="20" width="38.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -576,34 +624,37 @@
         <v>23</v>
       </c>
       <c r="J1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>21</v>
       </c>
@@ -631,23 +682,26 @@
       <c r="I2" t="s">
         <v>24</v>
       </c>
-      <c r="J2" t="s">
-        <v>20</v>
+      <c r="J2">
+        <v>1710088</v>
       </c>
       <c r="K2" t="s">
         <v>20</v>
       </c>
-      <c r="L2">
-        <v>400</v>
+      <c r="L2" t="s">
+        <v>20</v>
       </c>
       <c r="M2">
+        <v>400</v>
+      </c>
+      <c r="N2">
         <v>16</v>
       </c>
-      <c r="N2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>22</v>
       </c>
@@ -675,23 +729,26 @@
       <c r="I3" t="s">
         <v>25</v>
       </c>
-      <c r="J3" t="s">
-        <v>20</v>
+      <c r="J3">
+        <v>1700556</v>
       </c>
       <c r="K3" t="s">
         <v>20</v>
       </c>
-      <c r="L3">
-        <v>400</v>
+      <c r="L3" t="s">
+        <v>20</v>
       </c>
       <c r="M3">
+        <v>400</v>
+      </c>
+      <c r="N3">
         <v>16</v>
       </c>
-      <c r="N3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>23</v>
       </c>
@@ -719,72 +776,29 @@
       <c r="I4" t="s">
         <v>25</v>
       </c>
-      <c r="J4" t="s">
-        <v>20</v>
+      <c r="J4">
+        <v>1700556</v>
       </c>
       <c r="K4" t="s">
         <v>20</v>
       </c>
-      <c r="L4">
-        <v>400</v>
+      <c r="L4" t="s">
+        <v>20</v>
       </c>
       <c r="M4">
+        <v>400</v>
+      </c>
+      <c r="N4">
         <v>16</v>
       </c>
-      <c r="N4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="O4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5">
-        <v>224</v>
-      </c>
-      <c r="F5">
-        <v>7</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5">
-        <v>400</v>
-      </c>
-      <c r="M5">
-        <v>16</v>
-      </c>
-      <c r="N5">
-        <v>4</v>
-      </c>
-      <c r="S5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>25</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -810,28 +824,31 @@
       <c r="I6" t="s">
         <v>25</v>
       </c>
-      <c r="J6" t="s">
-        <v>20</v>
+      <c r="J6">
+        <v>2297996</v>
       </c>
       <c r="K6" t="s">
         <v>20</v>
       </c>
-      <c r="L6">
-        <v>400</v>
+      <c r="L6" t="s">
+        <v>20</v>
       </c>
       <c r="M6">
+        <v>400</v>
+      </c>
+      <c r="N6">
         <v>16</v>
       </c>
-      <c r="N6">
-        <v>4</v>
-      </c>
-      <c r="S6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -857,28 +874,31 @@
       <c r="I7" t="s">
         <v>25</v>
       </c>
-      <c r="J7" t="s">
-        <v>20</v>
+      <c r="J7">
+        <v>4687372</v>
       </c>
       <c r="K7" t="s">
         <v>20</v>
       </c>
-      <c r="L7">
-        <v>400</v>
+      <c r="L7" t="s">
+        <v>20</v>
       </c>
       <c r="M7">
+        <v>400</v>
+      </c>
+      <c r="N7">
         <v>16</v>
       </c>
-      <c r="N7">
-        <v>4</v>
-      </c>
-      <c r="S7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O7">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
@@ -904,28 +924,31 @@
       <c r="I8" t="s">
         <v>25</v>
       </c>
-      <c r="J8" t="s">
-        <v>20</v>
+      <c r="J8">
+        <v>14244492</v>
       </c>
       <c r="K8" t="s">
         <v>20</v>
       </c>
-      <c r="L8">
-        <v>400</v>
+      <c r="L8" t="s">
+        <v>20</v>
       </c>
       <c r="M8">
+        <v>400</v>
+      </c>
+      <c r="N8">
         <v>16</v>
       </c>
-      <c r="N8">
-        <v>4</v>
-      </c>
-      <c r="S8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O8">
+        <v>4</v>
+      </c>
+      <c r="T8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
@@ -951,28 +974,31 @@
       <c r="I9" t="s">
         <v>25</v>
       </c>
-      <c r="J9" t="s">
-        <v>20</v>
+      <c r="J9">
+        <v>52472588</v>
       </c>
       <c r="K9" t="s">
         <v>20</v>
       </c>
-      <c r="L9">
-        <v>400</v>
+      <c r="L9" t="s">
+        <v>20</v>
       </c>
       <c r="M9">
+        <v>400</v>
+      </c>
+      <c r="N9">
         <v>16</v>
       </c>
-      <c r="N9">
-        <v>4</v>
-      </c>
-      <c r="S9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O9">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
@@ -998,28 +1024,31 @@
       <c r="I10" t="s">
         <v>25</v>
       </c>
-      <c r="J10" t="s">
-        <v>20</v>
+      <c r="J10">
+        <v>4089932</v>
       </c>
       <c r="K10" t="s">
         <v>20</v>
       </c>
-      <c r="L10">
-        <v>400</v>
+      <c r="L10" t="s">
+        <v>20</v>
       </c>
       <c r="M10">
+        <v>400</v>
+      </c>
+      <c r="N10">
         <v>16</v>
       </c>
-      <c r="N10">
-        <v>4</v>
-      </c>
-      <c r="S10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O10">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -1045,34 +1074,138 @@
       <c r="I11" t="s">
         <v>25</v>
       </c>
-      <c r="J11" t="s">
-        <v>20</v>
+      <c r="J11">
+        <v>11257676</v>
       </c>
       <c r="K11" t="s">
         <v>20</v>
       </c>
-      <c r="L11">
-        <v>400</v>
+      <c r="L11" t="s">
+        <v>20</v>
       </c>
       <c r="M11">
+        <v>400</v>
+      </c>
+      <c r="N11">
         <v>16</v>
       </c>
-      <c r="N11">
-        <v>4</v>
-      </c>
-      <c r="S11" t="s">
+      <c r="O11">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>224</v>
+      </c>
+      <c r="F12">
+        <v>7</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12">
+        <v>39928652</v>
+      </c>
+      <c r="K12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12">
+        <v>400</v>
+      </c>
+      <c r="N12">
+        <v>16</v>
+      </c>
+      <c r="O12">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>224</v>
+      </c>
+      <c r="F14">
+        <v>7</v>
+      </c>
+      <c r="G14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14">
+        <v>2297996</v>
+      </c>
+      <c r="K14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14">
+        <v>400</v>
+      </c>
+      <c r="N14">
+        <v>16</v>
+      </c>
+      <c r="O14">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
@@ -1092,34 +1225,37 @@
       <c r="I15" t="s">
         <v>25</v>
       </c>
-      <c r="J15" t="s">
-        <v>20</v>
+      <c r="J15">
+        <v>4687372</v>
       </c>
       <c r="K15" t="s">
         <v>20</v>
       </c>
-      <c r="L15">
-        <v>400</v>
+      <c r="L15" t="s">
+        <v>20</v>
       </c>
       <c r="M15">
+        <v>400</v>
+      </c>
+      <c r="N15">
         <v>16</v>
       </c>
-      <c r="N15">
-        <v>4</v>
-      </c>
-      <c r="S15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O15">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
@@ -1139,34 +1275,37 @@
       <c r="I16" t="s">
         <v>25</v>
       </c>
-      <c r="J16" t="s">
-        <v>20</v>
+      <c r="J16">
+        <v>14244492</v>
       </c>
       <c r="K16" t="s">
         <v>20</v>
       </c>
-      <c r="L16">
-        <v>400</v>
+      <c r="L16" t="s">
+        <v>20</v>
       </c>
       <c r="M16">
+        <v>400</v>
+      </c>
+      <c r="N16">
         <v>16</v>
       </c>
-      <c r="N16">
-        <v>4</v>
-      </c>
-      <c r="S16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O16">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
         <v>26</v>
@@ -1186,34 +1325,37 @@
       <c r="I17" t="s">
         <v>25</v>
       </c>
-      <c r="J17" t="s">
-        <v>20</v>
+      <c r="J17">
+        <v>52472588</v>
       </c>
       <c r="K17" t="s">
         <v>20</v>
       </c>
-      <c r="L17">
-        <v>400</v>
+      <c r="L17" t="s">
+        <v>20</v>
       </c>
       <c r="M17">
+        <v>400</v>
+      </c>
+      <c r="N17">
         <v>16</v>
       </c>
-      <c r="N17">
-        <v>4</v>
-      </c>
-      <c r="S17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O17">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
         <v>26</v>
@@ -1233,34 +1375,37 @@
       <c r="I18" t="s">
         <v>25</v>
       </c>
-      <c r="J18" t="s">
-        <v>20</v>
+      <c r="J18">
+        <v>4089932</v>
       </c>
       <c r="K18" t="s">
         <v>20</v>
       </c>
-      <c r="L18">
-        <v>400</v>
+      <c r="L18" t="s">
+        <v>20</v>
       </c>
       <c r="M18">
+        <v>400</v>
+      </c>
+      <c r="N18">
         <v>16</v>
       </c>
-      <c r="N18">
-        <v>4</v>
-      </c>
-      <c r="S18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O18">
+        <v>4</v>
+      </c>
+      <c r="T18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
         <v>26</v>
@@ -1280,34 +1425,37 @@
       <c r="I19" t="s">
         <v>25</v>
       </c>
-      <c r="J19" t="s">
-        <v>20</v>
+      <c r="J19">
+        <v>11257676</v>
       </c>
       <c r="K19" t="s">
         <v>20</v>
       </c>
-      <c r="L19">
-        <v>400</v>
+      <c r="L19" t="s">
+        <v>20</v>
       </c>
       <c r="M19">
+        <v>400</v>
+      </c>
+      <c r="N19">
         <v>16</v>
       </c>
-      <c r="N19">
-        <v>4</v>
-      </c>
-      <c r="S19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O19">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D20" t="s">
         <v>26</v>
@@ -1327,128 +1475,210 @@
       <c r="I20" t="s">
         <v>25</v>
       </c>
-      <c r="J20" t="s">
-        <v>20</v>
+      <c r="J20">
+        <v>39928652</v>
       </c>
       <c r="K20" t="s">
         <v>20</v>
       </c>
-      <c r="L20">
-        <v>400</v>
+      <c r="L20" t="s">
+        <v>20</v>
       </c>
       <c r="M20">
+        <v>400</v>
+      </c>
+      <c r="N20">
         <v>16</v>
       </c>
-      <c r="N20">
-        <v>4</v>
-      </c>
-      <c r="S20" t="s">
+      <c r="O20">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>37</v>
-      </c>
-      <c r="B21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21">
-        <v>224</v>
-      </c>
-      <c r="F21">
-        <v>7</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22" t="s">
         <v>21</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H22" t="s">
         <v>22</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I22" t="s">
         <v>25</v>
       </c>
-      <c r="J21" t="s">
-        <v>20</v>
-      </c>
-      <c r="K21" t="s">
-        <v>20</v>
-      </c>
-      <c r="L21">
-        <v>400</v>
-      </c>
-      <c r="M21">
+      <c r="J22">
+        <v>72391</v>
+      </c>
+      <c r="K22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22">
+        <v>400</v>
+      </c>
+      <c r="N22">
         <v>16</v>
       </c>
-      <c r="N21">
-        <v>4</v>
-      </c>
-      <c r="S21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="O22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>39</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="3">
+        <v>32</v>
+      </c>
+      <c r="F23" s="3">
+        <v>4</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J23" s="3">
+        <v>72391</v>
+      </c>
+      <c r="M23" s="3">
+        <v>400</v>
+      </c>
+      <c r="N23" s="3">
+        <v>256</v>
+      </c>
+      <c r="O23" s="3">
+        <v>4</v>
+      </c>
+      <c r="T23" s="4"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24">
+        <v>32</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24" t="s">
         <v>38</v>
       </c>
-      <c r="B26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="I24" t="s">
+        <v>36</v>
+      </c>
+      <c r="J24">
+        <v>261071</v>
+      </c>
+      <c r="M24">
+        <v>400</v>
+      </c>
+      <c r="N24">
+        <v>256</v>
+      </c>
+      <c r="O24">
+        <v>4</v>
+      </c>
+      <c r="T24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>41</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25">
+        <v>32</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" t="s">
+        <v>36</v>
+      </c>
+      <c r="J25">
+        <v>261071</v>
+      </c>
+      <c r="M25">
+        <v>400</v>
+      </c>
+      <c r="N25">
+        <v>256</v>
+      </c>
+      <c r="O25">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>42</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s">
         <v>34</v>
       </c>
-      <c r="D26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26">
-        <v>32</v>
-      </c>
-      <c r="F26">
-        <v>4</v>
-      </c>
-      <c r="G26" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" t="s">
-        <v>22</v>
-      </c>
-      <c r="I26" t="s">
-        <v>25</v>
-      </c>
-      <c r="J26" t="s">
-        <v>20</v>
-      </c>
-      <c r="K26" t="s">
-        <v>20</v>
-      </c>
-      <c r="L26">
-        <v>400</v>
-      </c>
-      <c r="M26">
-        <v>16</v>
-      </c>
-      <c r="N26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>39</v>
-      </c>
-      <c r="B27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>19</v>
-      </c>
-      <c r="D27" t="s">
-        <v>26</v>
       </c>
       <c r="E27">
         <v>32</v>
@@ -1457,62 +1687,75 @@
         <v>4</v>
       </c>
       <c r="G27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" t="s">
+        <v>25</v>
+      </c>
+      <c r="J27">
+        <v>72391</v>
+      </c>
+      <c r="K27" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27">
+        <v>400</v>
+      </c>
+      <c r="N27">
+        <v>16</v>
+      </c>
+      <c r="O27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>43</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="3">
+        <v>32</v>
+      </c>
+      <c r="F28" s="3">
+        <v>4</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I28" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L27">
-        <v>400</v>
-      </c>
-      <c r="M27">
+      <c r="J28" s="3">
+        <v>72391</v>
+      </c>
+      <c r="M28" s="3">
+        <v>400</v>
+      </c>
+      <c r="N28" s="3">
         <v>256</v>
       </c>
-      <c r="N27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>40</v>
-      </c>
-      <c r="B28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28">
-        <v>32</v>
-      </c>
-      <c r="F28">
-        <v>4</v>
-      </c>
-      <c r="G28" t="s">
-        <v>38</v>
-      </c>
-      <c r="I28" t="s">
-        <v>36</v>
-      </c>
-      <c r="L28">
-        <v>400</v>
-      </c>
-      <c r="M28">
-        <v>256</v>
-      </c>
-      <c r="N28">
-        <v>4</v>
-      </c>
-      <c r="O28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O28" s="3">
+        <v>4</v>
+      </c>
+      <c r="T28" s="4"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
         <v>17</v>
@@ -1521,7 +1764,7 @@
         <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E29">
         <v>32</v>
@@ -1530,27 +1773,30 @@
         <v>4</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I29" t="s">
         <v>36</v>
       </c>
-      <c r="L29">
-        <v>400</v>
+      <c r="J29">
+        <v>261071</v>
       </c>
       <c r="M29">
+        <v>400</v>
+      </c>
+      <c r="N29">
         <v>256</v>
       </c>
-      <c r="N29">
-        <v>4</v>
-      </c>
-      <c r="O29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O29">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
         <v>17</v>
@@ -1559,7 +1805,7 @@
         <v>19</v>
       </c>
       <c r="D30" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E30">
         <v>32</v>
@@ -1573,213 +1819,221 @@
       <c r="I30" t="s">
         <v>36</v>
       </c>
-      <c r="L30">
-        <v>400</v>
+      <c r="J30">
+        <v>261071</v>
       </c>
       <c r="M30">
+        <v>400</v>
+      </c>
+      <c r="N30">
         <v>256</v>
       </c>
-      <c r="N30">
-        <v>4</v>
-      </c>
-      <c r="O30" t="s">
+      <c r="O30">
+        <v>4</v>
+      </c>
+      <c r="P30" t="s">
+        <v>44</v>
+      </c>
+      <c r="T30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>43</v>
+      </c>
+      <c r="B64" t="s">
+        <v>39</v>
+      </c>
+      <c r="C64" t="s">
+        <v>34</v>
+      </c>
+      <c r="D64" t="s">
+        <v>26</v>
+      </c>
+      <c r="E64">
+        <v>32</v>
+      </c>
+      <c r="F64">
+        <v>4</v>
+      </c>
+      <c r="G64" t="s">
+        <v>21</v>
+      </c>
+      <c r="H64" t="s">
+        <v>22</v>
+      </c>
+      <c r="I64" t="s">
+        <v>25</v>
+      </c>
+      <c r="K64" t="s">
+        <v>20</v>
+      </c>
+      <c r="L64" t="s">
+        <v>20</v>
+      </c>
+      <c r="M64">
+        <v>400</v>
+      </c>
+      <c r="N64">
+        <v>16</v>
+      </c>
+      <c r="O64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>44</v>
+      </c>
+      <c r="B65" t="s">
+        <v>39</v>
+      </c>
+      <c r="C65" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" t="s">
+        <v>26</v>
+      </c>
+      <c r="E65">
+        <v>32</v>
+      </c>
+      <c r="F65">
+        <v>4</v>
+      </c>
+      <c r="G65" t="s">
+        <v>35</v>
+      </c>
+      <c r="I65" t="s">
+        <v>36</v>
+      </c>
+      <c r="M65">
+        <v>400</v>
+      </c>
+      <c r="N65">
+        <v>256</v>
+      </c>
+      <c r="O65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>45</v>
+      </c>
+      <c r="B66" t="s">
+        <v>39</v>
+      </c>
+      <c r="C66" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" t="s">
+        <v>26</v>
+      </c>
+      <c r="E66">
+        <v>32</v>
+      </c>
+      <c r="F66">
+        <v>4</v>
+      </c>
+      <c r="G66" t="s">
+        <v>38</v>
+      </c>
+      <c r="I66" t="s">
+        <v>36</v>
+      </c>
+      <c r="M66">
+        <v>400</v>
+      </c>
+      <c r="N66">
+        <v>256</v>
+      </c>
+      <c r="O66">
+        <v>4</v>
+      </c>
+      <c r="P66" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>43</v>
-      </c>
-      <c r="B33" t="s">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>46</v>
+      </c>
+      <c r="B67" t="s">
         <v>39</v>
       </c>
-      <c r="C33" t="s">
-        <v>34</v>
-      </c>
-      <c r="D33" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33">
+      <c r="C67" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" t="s">
+        <v>26</v>
+      </c>
+      <c r="E67">
         <v>32</v>
       </c>
-      <c r="F33">
-        <v>4</v>
-      </c>
-      <c r="G33" t="s">
-        <v>21</v>
-      </c>
-      <c r="H33" t="s">
-        <v>22</v>
-      </c>
-      <c r="I33" t="s">
-        <v>25</v>
-      </c>
-      <c r="J33" t="s">
-        <v>20</v>
-      </c>
-      <c r="K33" t="s">
-        <v>20</v>
-      </c>
-      <c r="L33">
-        <v>400</v>
-      </c>
-      <c r="M33">
-        <v>16</v>
-      </c>
-      <c r="N33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>44</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="F67">
+        <v>4</v>
+      </c>
+      <c r="G67" t="s">
+        <v>35</v>
+      </c>
+      <c r="I67" t="s">
+        <v>36</v>
+      </c>
+      <c r="M67">
+        <v>400</v>
+      </c>
+      <c r="N67">
+        <v>256</v>
+      </c>
+      <c r="O67">
+        <v>4</v>
+      </c>
+      <c r="P67" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>47</v>
+      </c>
+      <c r="B68" t="s">
         <v>39</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C68" t="s">
         <v>19</v>
       </c>
-      <c r="D34" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34">
+      <c r="D68" t="s">
+        <v>26</v>
+      </c>
+      <c r="E68">
         <v>32</v>
       </c>
-      <c r="F34">
-        <v>4</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="F68">
+        <v>4</v>
+      </c>
+      <c r="G68" t="s">
         <v>35</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I68" t="s">
         <v>36</v>
       </c>
-      <c r="L34">
-        <v>400</v>
-      </c>
-      <c r="M34">
+      <c r="M68">
+        <v>400</v>
+      </c>
+      <c r="N68">
         <v>256</v>
       </c>
-      <c r="N34">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>45</v>
-      </c>
-      <c r="B35" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" t="s">
-        <v>26</v>
-      </c>
-      <c r="E35">
-        <v>32</v>
-      </c>
-      <c r="F35">
-        <v>4</v>
-      </c>
-      <c r="G35" t="s">
-        <v>38</v>
-      </c>
-      <c r="I35" t="s">
-        <v>36</v>
-      </c>
-      <c r="L35">
-        <v>400</v>
-      </c>
-      <c r="M35">
-        <v>256</v>
-      </c>
-      <c r="N35">
-        <v>4</v>
-      </c>
-      <c r="O35" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>46</v>
-      </c>
-      <c r="B36" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" t="s">
-        <v>26</v>
-      </c>
-      <c r="E36">
-        <v>32</v>
-      </c>
-      <c r="F36">
-        <v>4</v>
-      </c>
-      <c r="G36" t="s">
-        <v>35</v>
-      </c>
-      <c r="I36" t="s">
-        <v>36</v>
-      </c>
-      <c r="L36">
-        <v>400</v>
-      </c>
-      <c r="M36">
-        <v>256</v>
-      </c>
-      <c r="N36">
-        <v>4</v>
-      </c>
-      <c r="O36" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>47</v>
-      </c>
-      <c r="B37" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" t="s">
-        <v>26</v>
-      </c>
-      <c r="E37">
-        <v>32</v>
-      </c>
-      <c r="F37">
-        <v>4</v>
-      </c>
-      <c r="G37" t="s">
-        <v>35</v>
-      </c>
-      <c r="I37" t="s">
-        <v>36</v>
-      </c>
-      <c r="L37">
-        <v>400</v>
-      </c>
-      <c r="M37">
-        <v>256</v>
-      </c>
-      <c r="N37">
-        <v>4</v>
-      </c>
-      <c r="O37" t="s">
+      <c r="O68">
+        <v>4</v>
+      </c>
+      <c r="P68" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/run_name.xlsx
+++ b/run_name.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.badzohreh\Desktop\university\swin github\001\tensorized_swin_transformer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90DABBE9-FDCC-4B42-B563-6532F82E5F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453640C2-D7A4-4CB8-9447-7DBF8B729330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BC9EC6D8-3C02-4C26-B296-CC6EE85B1941}"/>
   </bookViews>
@@ -574,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8227B274-9E33-42F0-9ADE-307457E422C3}">
   <dimension ref="A1:T68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/run_name.xlsx
+++ b/run_name.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.badzohreh\Desktop\university\swin github\001\tensorized_swin_transformer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453640C2-D7A4-4CB8-9447-7DBF8B729330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47552317-43CB-4A2B-B706-8F023EE108E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BC9EC6D8-3C02-4C26-B296-CC6EE85B1941}"/>
   </bookViews>
@@ -574,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8227B274-9E33-42F0-9ADE-307457E422C3}">
   <dimension ref="A1:T68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/run_name.xlsx
+++ b/run_name.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.badzohreh\Desktop\university\swin github\001\tensorized_swin_transformer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47552317-43CB-4A2B-B706-8F023EE108E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D2FB48-97CE-4959-95CB-373077EE3DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BC9EC6D8-3C02-4C26-B296-CC6EE85B1941}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="46">
   <si>
     <t>Test Case</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>trl</t>
   </si>
 </sst>
 </file>
@@ -574,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8227B274-9E33-42F0-9ADE-307457E422C3}">
   <dimension ref="A1:T68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1839,6 +1842,178 @@
       </c>
     </row>
     <row r="31" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>42</v>
+      </c>
+      <c r="B32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32">
+        <v>32</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" t="s">
+        <v>22</v>
+      </c>
+      <c r="I32" t="s">
+        <v>45</v>
+      </c>
+      <c r="J32">
+        <v>74736</v>
+      </c>
+      <c r="K32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L32" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32">
+        <v>400</v>
+      </c>
+      <c r="N32">
+        <v>16</v>
+      </c>
+      <c r="O32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>43</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="3">
+        <v>32</v>
+      </c>
+      <c r="F33" s="3">
+        <v>4</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J33" s="3">
+        <v>74736</v>
+      </c>
+      <c r="M33" s="3">
+        <v>400</v>
+      </c>
+      <c r="N33" s="3">
+        <v>256</v>
+      </c>
+      <c r="O33" s="3">
+        <v>4</v>
+      </c>
+      <c r="T33" s="4"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>44</v>
+      </c>
+      <c r="B34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34">
+        <v>32</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34" t="s">
+        <v>38</v>
+      </c>
+      <c r="I34" t="s">
+        <v>45</v>
+      </c>
+      <c r="J34">
+        <v>263416</v>
+      </c>
+      <c r="M34">
+        <v>400</v>
+      </c>
+      <c r="N34">
+        <v>256</v>
+      </c>
+      <c r="O34">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>45</v>
+      </c>
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35">
+        <v>32</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35" t="s">
+        <v>35</v>
+      </c>
+      <c r="I35" t="s">
+        <v>45</v>
+      </c>
+      <c r="J35">
+        <v>263416</v>
+      </c>
+      <c r="M35">
+        <v>400</v>
+      </c>
+      <c r="N35">
+        <v>256</v>
+      </c>
+      <c r="O35">
+        <v>4</v>
+      </c>
+      <c r="P35" t="s">
+        <v>44</v>
+      </c>
+      <c r="T35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>43</v>

--- a/run_name.xlsx
+++ b/run_name.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.badzohreh\Desktop\university\swin github\001\tensorized_swin_transformer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D2FB48-97CE-4959-95CB-373077EE3DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403B555D-A8D0-4FC8-BADC-FD837BCF609D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BC9EC6D8-3C02-4C26-B296-CC6EE85B1941}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="47">
   <si>
     <t>Test Case</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>trl</t>
+  </si>
+  <si>
+    <t>attention type</t>
   </si>
 </sst>
 </file>
@@ -196,7 +199,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,6 +224,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -234,13 +243,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8227B274-9E33-42F0-9ADE-307457E422C3}">
-  <dimension ref="A1:T68"/>
+  <dimension ref="A1:U68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -589,16 +599,16 @@
     <col min="4" max="4" width="15.109375" customWidth="1"/>
     <col min="5" max="5" width="10.109375" customWidth="1"/>
     <col min="6" max="6" width="14.88671875" customWidth="1"/>
-    <col min="8" max="8" width="14.21875" customWidth="1"/>
-    <col min="9" max="10" width="24.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.21875" customWidth="1"/>
-    <col min="12" max="12" width="16.33203125" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" customWidth="1"/>
-    <col min="16" max="16" width="28.6640625" customWidth="1"/>
-    <col min="20" max="20" width="38.88671875" customWidth="1"/>
+    <col min="8" max="9" width="14.21875" customWidth="1"/>
+    <col min="10" max="11" width="24.33203125" customWidth="1"/>
+    <col min="12" max="12" width="14.21875" customWidth="1"/>
+    <col min="13" max="13" width="16.33203125" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" customWidth="1"/>
+    <col min="17" max="17" width="28.6640625" customWidth="1"/>
+    <col min="21" max="21" width="38.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -624,40 +634,43 @@
         <v>8</v>
       </c>
       <c r="I1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>40</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>21</v>
       </c>
@@ -683,28 +696,31 @@
         <v>22</v>
       </c>
       <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
         <v>24</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>1710088</v>
       </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
       <c r="L2" t="s">
         <v>20</v>
       </c>
-      <c r="M2">
-        <v>400</v>
+      <c r="M2" t="s">
+        <v>20</v>
       </c>
       <c r="N2">
-        <v>16</v>
+        <v>400</v>
       </c>
       <c r="O2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="P2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>22</v>
       </c>
@@ -732,26 +748,29 @@
       <c r="I3" t="s">
         <v>25</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3">
         <v>1700556</v>
       </c>
-      <c r="K3" t="s">
-        <v>20</v>
-      </c>
       <c r="L3" t="s">
         <v>20</v>
       </c>
-      <c r="M3">
-        <v>400</v>
+      <c r="M3" t="s">
+        <v>20</v>
       </c>
       <c r="N3">
-        <v>16</v>
+        <v>400</v>
       </c>
       <c r="O3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="P3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>23</v>
       </c>
@@ -779,27 +798,30 @@
       <c r="I4" t="s">
         <v>25</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4">
         <v>1700556</v>
       </c>
-      <c r="K4" t="s">
-        <v>20</v>
-      </c>
       <c r="L4" t="s">
         <v>20</v>
       </c>
-      <c r="M4">
-        <v>400</v>
+      <c r="M4" t="s">
+        <v>20</v>
       </c>
       <c r="N4">
-        <v>16</v>
+        <v>400</v>
       </c>
       <c r="O4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="P4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>24</v>
       </c>
@@ -827,29 +849,32 @@
       <c r="I6" t="s">
         <v>25</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6">
         <v>2297996</v>
       </c>
-      <c r="K6" t="s">
-        <v>20</v>
-      </c>
       <c r="L6" t="s">
         <v>20</v>
       </c>
-      <c r="M6">
-        <v>400</v>
+      <c r="M6" t="s">
+        <v>20</v>
       </c>
       <c r="N6">
-        <v>16</v>
+        <v>400</v>
       </c>
       <c r="O6">
-        <v>4</v>
-      </c>
-      <c r="T6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6">
+        <v>4</v>
+      </c>
+      <c r="U6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>25</v>
       </c>
@@ -877,29 +902,32 @@
       <c r="I7" t="s">
         <v>25</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7">
         <v>4687372</v>
       </c>
-      <c r="K7" t="s">
-        <v>20</v>
-      </c>
       <c r="L7" t="s">
         <v>20</v>
       </c>
-      <c r="M7">
-        <v>400</v>
+      <c r="M7" t="s">
+        <v>20</v>
       </c>
       <c r="N7">
-        <v>16</v>
+        <v>400</v>
       </c>
       <c r="O7">
-        <v>4</v>
-      </c>
-      <c r="T7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7">
+        <v>4</v>
+      </c>
+      <c r="U7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>26</v>
       </c>
@@ -927,29 +955,32 @@
       <c r="I8" t="s">
         <v>25</v>
       </c>
-      <c r="J8">
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8">
         <v>14244492</v>
       </c>
-      <c r="K8" t="s">
-        <v>20</v>
-      </c>
       <c r="L8" t="s">
         <v>20</v>
       </c>
-      <c r="M8">
-        <v>400</v>
+      <c r="M8" t="s">
+        <v>20</v>
       </c>
       <c r="N8">
-        <v>16</v>
+        <v>400</v>
       </c>
       <c r="O8">
-        <v>4</v>
-      </c>
-      <c r="T8" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8">
+        <v>4</v>
+      </c>
+      <c r="U8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>27</v>
       </c>
@@ -977,29 +1008,32 @@
       <c r="I9" t="s">
         <v>25</v>
       </c>
-      <c r="J9">
+      <c r="J9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9">
         <v>52472588</v>
       </c>
-      <c r="K9" t="s">
-        <v>20</v>
-      </c>
       <c r="L9" t="s">
         <v>20</v>
       </c>
-      <c r="M9">
-        <v>400</v>
+      <c r="M9" t="s">
+        <v>20</v>
       </c>
       <c r="N9">
-        <v>16</v>
+        <v>400</v>
       </c>
       <c r="O9">
-        <v>4</v>
-      </c>
-      <c r="T9" t="s">
+        <v>16</v>
+      </c>
+      <c r="P9">
+        <v>4</v>
+      </c>
+      <c r="U9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>28</v>
       </c>
@@ -1027,29 +1061,32 @@
       <c r="I10" t="s">
         <v>25</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10">
         <v>4089932</v>
       </c>
-      <c r="K10" t="s">
-        <v>20</v>
-      </c>
       <c r="L10" t="s">
         <v>20</v>
       </c>
-      <c r="M10">
-        <v>400</v>
+      <c r="M10" t="s">
+        <v>20</v>
       </c>
       <c r="N10">
-        <v>16</v>
+        <v>400</v>
       </c>
       <c r="O10">
-        <v>4</v>
-      </c>
-      <c r="T10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P10">
+        <v>4</v>
+      </c>
+      <c r="U10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>29</v>
       </c>
@@ -1077,29 +1114,32 @@
       <c r="I11" t="s">
         <v>25</v>
       </c>
-      <c r="J11">
+      <c r="J11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11">
         <v>11257676</v>
       </c>
-      <c r="K11" t="s">
-        <v>20</v>
-      </c>
       <c r="L11" t="s">
         <v>20</v>
       </c>
-      <c r="M11">
-        <v>400</v>
+      <c r="M11" t="s">
+        <v>20</v>
       </c>
       <c r="N11">
-        <v>16</v>
+        <v>400</v>
       </c>
       <c r="O11">
-        <v>4</v>
-      </c>
-      <c r="T11" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11">
+        <v>4</v>
+      </c>
+      <c r="U11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>30</v>
       </c>
@@ -1127,30 +1167,33 @@
       <c r="I12" t="s">
         <v>25</v>
       </c>
-      <c r="J12">
+      <c r="J12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12">
         <v>39928652</v>
       </c>
-      <c r="K12" t="s">
-        <v>20</v>
-      </c>
       <c r="L12" t="s">
         <v>20</v>
       </c>
-      <c r="M12">
-        <v>400</v>
+      <c r="M12" t="s">
+        <v>20</v>
       </c>
       <c r="N12">
-        <v>16</v>
+        <v>400</v>
       </c>
       <c r="O12">
-        <v>4</v>
-      </c>
-      <c r="T12" t="s">
+        <v>16</v>
+      </c>
+      <c r="P12">
+        <v>4</v>
+      </c>
+      <c r="U12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>31</v>
       </c>
@@ -1178,29 +1221,32 @@
       <c r="I14" t="s">
         <v>25</v>
       </c>
-      <c r="J14">
+      <c r="J14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14">
         <v>2297996</v>
       </c>
-      <c r="K14" t="s">
-        <v>20</v>
-      </c>
       <c r="L14" t="s">
         <v>20</v>
       </c>
-      <c r="M14">
-        <v>400</v>
+      <c r="M14" t="s">
+        <v>20</v>
       </c>
       <c r="N14">
-        <v>16</v>
+        <v>400</v>
       </c>
       <c r="O14">
-        <v>4</v>
-      </c>
-      <c r="T14" t="s">
+        <v>16</v>
+      </c>
+      <c r="P14">
+        <v>4</v>
+      </c>
+      <c r="U14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>32</v>
       </c>
@@ -1228,29 +1274,32 @@
       <c r="I15" t="s">
         <v>25</v>
       </c>
-      <c r="J15">
+      <c r="J15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15">
         <v>4687372</v>
       </c>
-      <c r="K15" t="s">
-        <v>20</v>
-      </c>
       <c r="L15" t="s">
         <v>20</v>
       </c>
-      <c r="M15">
-        <v>400</v>
+      <c r="M15" t="s">
+        <v>20</v>
       </c>
       <c r="N15">
-        <v>16</v>
+        <v>400</v>
       </c>
       <c r="O15">
-        <v>4</v>
-      </c>
-      <c r="T15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P15">
+        <v>4</v>
+      </c>
+      <c r="U15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>33</v>
       </c>
@@ -1278,29 +1327,32 @@
       <c r="I16" t="s">
         <v>25</v>
       </c>
-      <c r="J16">
+      <c r="J16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16">
         <v>14244492</v>
       </c>
-      <c r="K16" t="s">
-        <v>20</v>
-      </c>
       <c r="L16" t="s">
         <v>20</v>
       </c>
-      <c r="M16">
-        <v>400</v>
+      <c r="M16" t="s">
+        <v>20</v>
       </c>
       <c r="N16">
-        <v>16</v>
+        <v>400</v>
       </c>
       <c r="O16">
-        <v>4</v>
-      </c>
-      <c r="T16" t="s">
+        <v>16</v>
+      </c>
+      <c r="P16">
+        <v>4</v>
+      </c>
+      <c r="U16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>34</v>
       </c>
@@ -1328,29 +1380,32 @@
       <c r="I17" t="s">
         <v>25</v>
       </c>
-      <c r="J17">
+      <c r="J17" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17">
         <v>52472588</v>
       </c>
-      <c r="K17" t="s">
-        <v>20</v>
-      </c>
       <c r="L17" t="s">
         <v>20</v>
       </c>
-      <c r="M17">
-        <v>400</v>
+      <c r="M17" t="s">
+        <v>20</v>
       </c>
       <c r="N17">
-        <v>16</v>
+        <v>400</v>
       </c>
       <c r="O17">
-        <v>4</v>
-      </c>
-      <c r="T17" t="s">
+        <v>16</v>
+      </c>
+      <c r="P17">
+        <v>4</v>
+      </c>
+      <c r="U17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>35</v>
       </c>
@@ -1378,29 +1433,32 @@
       <c r="I18" t="s">
         <v>25</v>
       </c>
-      <c r="J18">
+      <c r="J18" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18">
         <v>4089932</v>
       </c>
-      <c r="K18" t="s">
-        <v>20</v>
-      </c>
       <c r="L18" t="s">
         <v>20</v>
       </c>
-      <c r="M18">
-        <v>400</v>
+      <c r="M18" t="s">
+        <v>20</v>
       </c>
       <c r="N18">
-        <v>16</v>
+        <v>400</v>
       </c>
       <c r="O18">
-        <v>4</v>
-      </c>
-      <c r="T18" t="s">
+        <v>16</v>
+      </c>
+      <c r="P18">
+        <v>4</v>
+      </c>
+      <c r="U18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>36</v>
       </c>
@@ -1428,29 +1486,32 @@
       <c r="I19" t="s">
         <v>25</v>
       </c>
-      <c r="J19">
+      <c r="J19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19">
         <v>11257676</v>
       </c>
-      <c r="K19" t="s">
-        <v>20</v>
-      </c>
       <c r="L19" t="s">
         <v>20</v>
       </c>
-      <c r="M19">
-        <v>400</v>
+      <c r="M19" t="s">
+        <v>20</v>
       </c>
       <c r="N19">
-        <v>16</v>
+        <v>400</v>
       </c>
       <c r="O19">
-        <v>4</v>
-      </c>
-      <c r="T19" t="s">
+        <v>16</v>
+      </c>
+      <c r="P19">
+        <v>4</v>
+      </c>
+      <c r="U19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>37</v>
       </c>
@@ -1478,30 +1539,33 @@
       <c r="I20" t="s">
         <v>25</v>
       </c>
-      <c r="J20">
+      <c r="J20" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20">
         <v>39928652</v>
       </c>
-      <c r="K20" t="s">
-        <v>20</v>
-      </c>
       <c r="L20" t="s">
         <v>20</v>
       </c>
-      <c r="M20">
-        <v>400</v>
+      <c r="M20" t="s">
+        <v>20</v>
       </c>
       <c r="N20">
-        <v>16</v>
+        <v>400</v>
       </c>
       <c r="O20">
-        <v>4</v>
-      </c>
-      <c r="T20" t="s">
+        <v>16</v>
+      </c>
+      <c r="P20">
+        <v>4</v>
+      </c>
+      <c r="U20" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>38</v>
       </c>
@@ -1529,26 +1593,29 @@
       <c r="I22" t="s">
         <v>25</v>
       </c>
-      <c r="J22">
+      <c r="J22" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22">
         <v>72391</v>
       </c>
-      <c r="K22" t="s">
-        <v>20</v>
-      </c>
       <c r="L22" t="s">
         <v>20</v>
       </c>
-      <c r="M22">
-        <v>400</v>
+      <c r="M22" t="s">
+        <v>20</v>
       </c>
       <c r="N22">
-        <v>16</v>
+        <v>400</v>
       </c>
       <c r="O22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="P22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>39</v>
       </c>
@@ -1570,24 +1637,27 @@
       <c r="G23" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" t="s">
+        <v>25</v>
+      </c>
+      <c r="J23" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>72391</v>
       </c>
-      <c r="M23" s="3">
-        <v>400</v>
-      </c>
       <c r="N23" s="3">
+        <v>400</v>
+      </c>
+      <c r="O23" s="3">
         <v>256</v>
       </c>
-      <c r="O23" s="3">
-        <v>4</v>
-      </c>
-      <c r="T23" s="4"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="P23" s="3">
+        <v>4</v>
+      </c>
+      <c r="U23" s="4"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>40</v>
       </c>
@@ -1610,25 +1680,28 @@
         <v>38</v>
       </c>
       <c r="I24" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" t="s">
         <v>36</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>261071</v>
       </c>
-      <c r="M24">
-        <v>400</v>
-      </c>
       <c r="N24">
+        <v>400</v>
+      </c>
+      <c r="O24">
         <v>256</v>
       </c>
-      <c r="O24">
-        <v>4</v>
-      </c>
-      <c r="T24" t="s">
+      <c r="P24">
+        <v>4</v>
+      </c>
+      <c r="U24" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>41</v>
       </c>
@@ -1651,26 +1724,29 @@
         <v>35</v>
       </c>
       <c r="I25" t="s">
+        <v>25</v>
+      </c>
+      <c r="J25" t="s">
         <v>36</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>261071</v>
       </c>
-      <c r="M25">
-        <v>400</v>
-      </c>
       <c r="N25">
+        <v>400</v>
+      </c>
+      <c r="O25">
         <v>256</v>
       </c>
-      <c r="O25">
-        <v>4</v>
-      </c>
-      <c r="T25" t="s">
+      <c r="P25">
+        <v>4</v>
+      </c>
+      <c r="U25" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>42</v>
       </c>
@@ -1698,26 +1774,29 @@
       <c r="I27" t="s">
         <v>25</v>
       </c>
-      <c r="J27">
+      <c r="J27" t="s">
+        <v>25</v>
+      </c>
+      <c r="K27">
         <v>72391</v>
       </c>
-      <c r="K27" t="s">
-        <v>20</v>
-      </c>
       <c r="L27" t="s">
         <v>20</v>
       </c>
-      <c r="M27">
-        <v>400</v>
+      <c r="M27" t="s">
+        <v>20</v>
       </c>
       <c r="N27">
-        <v>16</v>
+        <v>400</v>
       </c>
       <c r="O27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="P27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>43</v>
       </c>
@@ -1740,23 +1819,26 @@
         <v>35</v>
       </c>
       <c r="I28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J28" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J28" s="3">
+      <c r="K28" s="3">
         <v>72391</v>
       </c>
-      <c r="M28" s="3">
-        <v>400</v>
-      </c>
       <c r="N28" s="3">
+        <v>400</v>
+      </c>
+      <c r="O28" s="3">
         <v>256</v>
       </c>
-      <c r="O28" s="3">
-        <v>4</v>
-      </c>
-      <c r="T28" s="4"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="P28" s="3">
+        <v>4</v>
+      </c>
+      <c r="U28" s="4"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>44</v>
       </c>
@@ -1779,25 +1861,28 @@
         <v>38</v>
       </c>
       <c r="I29" t="s">
+        <v>25</v>
+      </c>
+      <c r="J29" t="s">
         <v>36</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>261071</v>
       </c>
-      <c r="M29">
-        <v>400</v>
-      </c>
       <c r="N29">
+        <v>400</v>
+      </c>
+      <c r="O29">
         <v>256</v>
       </c>
-      <c r="O29">
-        <v>4</v>
-      </c>
-      <c r="T29" t="s">
+      <c r="P29">
+        <v>4</v>
+      </c>
+      <c r="U29" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>45</v>
       </c>
@@ -1820,31 +1905,34 @@
         <v>35</v>
       </c>
       <c r="I30" t="s">
+        <v>25</v>
+      </c>
+      <c r="J30" t="s">
         <v>36</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>261071</v>
       </c>
-      <c r="M30">
-        <v>400</v>
-      </c>
       <c r="N30">
+        <v>400</v>
+      </c>
+      <c r="O30">
         <v>256</v>
       </c>
-      <c r="O30">
-        <v>4</v>
-      </c>
-      <c r="P30" t="s">
+      <c r="P30">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="s">
         <v>44</v>
       </c>
-      <c r="T30" t="s">
+      <c r="U30" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
         <v>17</v>
@@ -1868,30 +1956,33 @@
         <v>22</v>
       </c>
       <c r="I32" t="s">
+        <v>25</v>
+      </c>
+      <c r="J32" t="s">
         <v>45</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>74736</v>
       </c>
-      <c r="K32" t="s">
-        <v>20</v>
-      </c>
       <c r="L32" t="s">
         <v>20</v>
       </c>
-      <c r="M32">
-        <v>400</v>
+      <c r="M32" t="s">
+        <v>20</v>
       </c>
       <c r="N32">
-        <v>16</v>
+        <v>400</v>
       </c>
       <c r="O32">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="P32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>17</v>
@@ -1912,25 +2003,28 @@
         <v>35</v>
       </c>
       <c r="I33" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J33" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>74736</v>
       </c>
-      <c r="M33" s="3">
-        <v>400</v>
-      </c>
       <c r="N33" s="3">
+        <v>400</v>
+      </c>
+      <c r="O33" s="3">
         <v>256</v>
       </c>
-      <c r="O33" s="3">
-        <v>4</v>
-      </c>
-      <c r="T33" s="4"/>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="P33" s="3">
+        <v>4</v>
+      </c>
+      <c r="U33" s="4"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s">
         <v>17</v>
@@ -1951,27 +2045,30 @@
         <v>38</v>
       </c>
       <c r="I34" t="s">
+        <v>25</v>
+      </c>
+      <c r="J34" t="s">
         <v>45</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>263416</v>
       </c>
-      <c r="M34">
-        <v>400</v>
-      </c>
       <c r="N34">
+        <v>400</v>
+      </c>
+      <c r="O34">
         <v>256</v>
       </c>
-      <c r="O34">
-        <v>4</v>
-      </c>
-      <c r="T34" t="s">
+      <c r="P34">
+        <v>4</v>
+      </c>
+      <c r="U34" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
         <v>17</v>
@@ -1992,29 +2089,587 @@
         <v>35</v>
       </c>
       <c r="I35" t="s">
+        <v>25</v>
+      </c>
+      <c r="J35" t="s">
         <v>45</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>263416</v>
       </c>
-      <c r="M35">
-        <v>400</v>
-      </c>
       <c r="N35">
+        <v>400</v>
+      </c>
+      <c r="O35">
         <v>256</v>
       </c>
-      <c r="O35">
-        <v>4</v>
-      </c>
-      <c r="P35" t="s">
+      <c r="P35">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="s">
         <v>44</v>
       </c>
-      <c r="T35" t="s">
+      <c r="U35" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>50</v>
+      </c>
+      <c r="B37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37">
+        <v>224</v>
+      </c>
+      <c r="F37">
+        <v>7</v>
+      </c>
+      <c r="G37" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" t="s">
+        <v>45</v>
+      </c>
+      <c r="J37" t="s">
+        <v>45</v>
+      </c>
+      <c r="K37">
+        <v>21209884</v>
+      </c>
+      <c r="L37" t="s">
+        <v>20</v>
+      </c>
+      <c r="M37" t="s">
+        <v>20</v>
+      </c>
+      <c r="N37">
+        <v>400</v>
+      </c>
+      <c r="O37">
+        <v>16</v>
+      </c>
+      <c r="P37">
+        <v>4</v>
+      </c>
+      <c r="U37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>51</v>
+      </c>
+      <c r="B38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38">
+        <v>224</v>
+      </c>
+      <c r="F38">
+        <v>7</v>
+      </c>
+      <c r="G38" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38" t="s">
+        <v>45</v>
+      </c>
+      <c r="J38" t="s">
+        <v>45</v>
+      </c>
+      <c r="K38">
+        <v>23599260</v>
+      </c>
+      <c r="L38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M38" t="s">
+        <v>20</v>
+      </c>
+      <c r="N38">
+        <v>400</v>
+      </c>
+      <c r="O38">
+        <v>16</v>
+      </c>
+      <c r="P38">
+        <v>4</v>
+      </c>
+      <c r="U38" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>52</v>
+      </c>
+      <c r="B39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39">
+        <v>224</v>
+      </c>
+      <c r="F39">
+        <v>7</v>
+      </c>
+      <c r="G39" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" t="s">
+        <v>22</v>
+      </c>
+      <c r="I39" t="s">
+        <v>45</v>
+      </c>
+      <c r="J39" t="s">
+        <v>45</v>
+      </c>
+      <c r="K39">
+        <v>33156380</v>
+      </c>
+      <c r="L39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N39">
+        <v>400</v>
+      </c>
+      <c r="O39">
+        <v>16</v>
+      </c>
+      <c r="P39">
+        <v>4</v>
+      </c>
+      <c r="U39" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>53</v>
+      </c>
+      <c r="B40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40">
+        <v>224</v>
+      </c>
+      <c r="F40">
+        <v>7</v>
+      </c>
+      <c r="G40" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" t="s">
+        <v>22</v>
+      </c>
+      <c r="I40" t="s">
+        <v>45</v>
+      </c>
+      <c r="J40" t="s">
+        <v>45</v>
+      </c>
+      <c r="K40">
+        <v>61947052</v>
+      </c>
+      <c r="L40" t="s">
+        <v>20</v>
+      </c>
+      <c r="M40" t="s">
+        <v>20</v>
+      </c>
+      <c r="N40">
+        <v>400</v>
+      </c>
+      <c r="O40">
+        <v>16</v>
+      </c>
+      <c r="P40">
+        <v>4</v>
+      </c>
+      <c r="U40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>54</v>
+      </c>
+      <c r="B41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41">
+        <v>224</v>
+      </c>
+      <c r="F41">
+        <v>7</v>
+      </c>
+      <c r="G41" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" t="s">
+        <v>22</v>
+      </c>
+      <c r="I41" t="s">
+        <v>45</v>
+      </c>
+      <c r="J41" t="s">
+        <v>45</v>
+      </c>
+      <c r="K41">
+        <v>23001820</v>
+      </c>
+      <c r="L41" t="s">
+        <v>20</v>
+      </c>
+      <c r="M41" t="s">
+        <v>20</v>
+      </c>
+      <c r="N41">
+        <v>400</v>
+      </c>
+      <c r="O41">
+        <v>16</v>
+      </c>
+      <c r="P41">
+        <v>4</v>
+      </c>
+      <c r="U41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>55</v>
+      </c>
+      <c r="B42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42">
+        <v>224</v>
+      </c>
+      <c r="F42">
+        <v>7</v>
+      </c>
+      <c r="G42" t="s">
+        <v>21</v>
+      </c>
+      <c r="H42" t="s">
+        <v>22</v>
+      </c>
+      <c r="I42" t="s">
+        <v>45</v>
+      </c>
+      <c r="J42" t="s">
+        <v>45</v>
+      </c>
+      <c r="K42">
+        <v>30169564</v>
+      </c>
+      <c r="L42" t="s">
+        <v>20</v>
+      </c>
+      <c r="M42" t="s">
+        <v>20</v>
+      </c>
+      <c r="N42">
+        <v>400</v>
+      </c>
+      <c r="O42">
+        <v>16</v>
+      </c>
+      <c r="P42">
+        <v>4</v>
+      </c>
+      <c r="U42" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>56</v>
+      </c>
+      <c r="B43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43">
+        <v>224</v>
+      </c>
+      <c r="F43">
+        <v>7</v>
+      </c>
+      <c r="G43" t="s">
+        <v>21</v>
+      </c>
+      <c r="H43" t="s">
+        <v>22</v>
+      </c>
+      <c r="I43" t="s">
+        <v>45</v>
+      </c>
+      <c r="J43" t="s">
+        <v>45</v>
+      </c>
+      <c r="K43">
+        <v>58840540</v>
+      </c>
+      <c r="L43" t="s">
+        <v>20</v>
+      </c>
+      <c r="M43" t="s">
+        <v>20</v>
+      </c>
+      <c r="N43">
+        <v>400</v>
+      </c>
+      <c r="O43">
+        <v>16</v>
+      </c>
+      <c r="P43">
+        <v>4</v>
+      </c>
+      <c r="U43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>57</v>
+      </c>
+      <c r="B45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45">
+        <v>32</v>
+      </c>
+      <c r="F45">
+        <v>4</v>
+      </c>
+      <c r="G45" t="s">
+        <v>21</v>
+      </c>
+      <c r="H45" t="s">
+        <v>22</v>
+      </c>
+      <c r="I45" t="s">
+        <v>45</v>
+      </c>
+      <c r="J45" t="s">
+        <v>45</v>
+      </c>
+      <c r="K45">
+        <v>74736</v>
+      </c>
+      <c r="L45" t="s">
+        <v>20</v>
+      </c>
+      <c r="M45" t="s">
+        <v>20</v>
+      </c>
+      <c r="N45">
+        <v>400</v>
+      </c>
+      <c r="O45">
+        <v>16</v>
+      </c>
+      <c r="P45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>58</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="3">
+        <v>32</v>
+      </c>
+      <c r="F46" s="3">
+        <v>4</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K46" s="3">
+        <v>74736</v>
+      </c>
+      <c r="N46" s="3">
+        <v>400</v>
+      </c>
+      <c r="O46" s="3">
+        <v>256</v>
+      </c>
+      <c r="P46" s="3">
+        <v>4</v>
+      </c>
+      <c r="U46" s="4"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>59</v>
+      </c>
+      <c r="B47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47">
+        <v>32</v>
+      </c>
+      <c r="F47">
+        <v>4</v>
+      </c>
+      <c r="G47" t="s">
+        <v>38</v>
+      </c>
+      <c r="I47" t="s">
+        <v>45</v>
+      </c>
+      <c r="J47" t="s">
+        <v>45</v>
+      </c>
+      <c r="K47">
+        <v>263416</v>
+      </c>
+      <c r="N47">
+        <v>400</v>
+      </c>
+      <c r="O47">
+        <v>256</v>
+      </c>
+      <c r="P47">
+        <v>4</v>
+      </c>
+      <c r="U47" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>60</v>
+      </c>
+      <c r="B48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48">
+        <v>32</v>
+      </c>
+      <c r="F48">
+        <v>4</v>
+      </c>
+      <c r="G48" t="s">
+        <v>35</v>
+      </c>
+      <c r="I48" t="s">
+        <v>45</v>
+      </c>
+      <c r="J48" t="s">
+        <v>45</v>
+      </c>
+      <c r="K48">
+        <v>263416</v>
+      </c>
+      <c r="N48">
+        <v>400</v>
+      </c>
+      <c r="O48">
+        <v>256</v>
+      </c>
+      <c r="P48">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>44</v>
+      </c>
+      <c r="U48" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>43</v>
       </c>
@@ -2039,26 +2694,26 @@
       <c r="H64" t="s">
         <v>22</v>
       </c>
-      <c r="I64" t="s">
-        <v>25</v>
-      </c>
-      <c r="K64" t="s">
-        <v>20</v>
+      <c r="J64" t="s">
+        <v>25</v>
       </c>
       <c r="L64" t="s">
         <v>20</v>
       </c>
-      <c r="M64">
-        <v>400</v>
+      <c r="M64" t="s">
+        <v>20</v>
       </c>
       <c r="N64">
-        <v>16</v>
+        <v>400</v>
       </c>
       <c r="O64">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="P64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>44</v>
       </c>
@@ -2080,20 +2735,20 @@
       <c r="G65" t="s">
         <v>35</v>
       </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
         <v>36</v>
       </c>
-      <c r="M65">
-        <v>400</v>
-      </c>
       <c r="N65">
+        <v>400</v>
+      </c>
+      <c r="O65">
         <v>256</v>
       </c>
-      <c r="O65">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>45</v>
       </c>
@@ -2115,23 +2770,23 @@
       <c r="G66" t="s">
         <v>38</v>
       </c>
-      <c r="I66" t="s">
+      <c r="J66" t="s">
         <v>36</v>
       </c>
-      <c r="M66">
-        <v>400</v>
-      </c>
       <c r="N66">
+        <v>400</v>
+      </c>
+      <c r="O66">
         <v>256</v>
       </c>
-      <c r="O66">
-        <v>4</v>
-      </c>
-      <c r="P66" t="s">
+      <c r="P66">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>46</v>
       </c>
@@ -2153,23 +2808,23 @@
       <c r="G67" t="s">
         <v>35</v>
       </c>
-      <c r="I67" t="s">
+      <c r="J67" t="s">
         <v>36</v>
       </c>
-      <c r="M67">
-        <v>400</v>
-      </c>
       <c r="N67">
+        <v>400</v>
+      </c>
+      <c r="O67">
         <v>256</v>
       </c>
-      <c r="O67">
-        <v>4</v>
-      </c>
-      <c r="P67" t="s">
+      <c r="P67">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>47</v>
       </c>
@@ -2191,19 +2846,19 @@
       <c r="G68" t="s">
         <v>35</v>
       </c>
-      <c r="I68" t="s">
+      <c r="J68" t="s">
         <v>36</v>
       </c>
-      <c r="M68">
-        <v>400</v>
-      </c>
       <c r="N68">
+        <v>400</v>
+      </c>
+      <c r="O68">
         <v>256</v>
       </c>
-      <c r="O68">
-        <v>4</v>
-      </c>
-      <c r="P68" t="s">
+      <c r="P68">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="s">
         <v>37</v>
       </c>
     </row>

--- a/run_name.xlsx
+++ b/run_name.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.badzohreh\Desktop\university\swin github\001\tensorized_swin_transformer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403B555D-A8D0-4FC8-BADC-FD837BCF609D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952CBDFC-D3D3-410F-957A-7FA8C473EBFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BC9EC6D8-3C02-4C26-B296-CC6EE85B1941}"/>
+    <workbookView xWindow="1440" yWindow="1008" windowWidth="21564" windowHeight="11232" xr2:uid="{BC9EC6D8-3C02-4C26-B296-CC6EE85B1941}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="49">
   <si>
     <t>Test Case</t>
   </si>
@@ -149,9 +149,6 @@
     <t>tcl</t>
   </si>
   <si>
-    <t xml:space="preserve">use trl </t>
-  </si>
-  <si>
     <t>adam</t>
   </si>
   <si>
@@ -177,13 +174,22 @@
   </si>
   <si>
     <t>attention type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adamw </t>
+  </si>
+  <si>
+    <t>mnist</t>
+  </si>
+  <si>
+    <t>cifar10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,8 +204,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,6 +242,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -243,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -251,6 +281,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8227B274-9E33-42F0-9ADE-307457E422C3}">
-  <dimension ref="A1:U68"/>
+  <dimension ref="A1:U88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="J56" sqref="J56"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I89" sqref="I89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -634,13 +667,13 @@
         <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J1" t="s">
         <v>23</v>
       </c>
       <c r="K1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L1" t="s">
         <v>6</v>
@@ -1204,7 +1237,7 @@
         <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E14">
         <v>224</v>
@@ -1213,7 +1246,7 @@
         <v>7</v>
       </c>
       <c r="G14" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
         <v>22</v>
@@ -1257,7 +1290,7 @@
         <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E15">
         <v>224</v>
@@ -1266,7 +1299,7 @@
         <v>7</v>
       </c>
       <c r="G15" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
         <v>22</v>
@@ -1307,10 +1340,10 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E16">
         <v>224</v>
@@ -1319,7 +1352,7 @@
         <v>7</v>
       </c>
       <c r="G16" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
         <v>22</v>
@@ -1363,7 +1396,7 @@
         <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E17">
         <v>224</v>
@@ -1372,7 +1405,7 @@
         <v>7</v>
       </c>
       <c r="G17" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
         <v>22</v>
@@ -1413,10 +1446,10 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E18">
         <v>224</v>
@@ -1425,7 +1458,7 @@
         <v>7</v>
       </c>
       <c r="G18" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
         <v>22</v>
@@ -1469,7 +1502,7 @@
         <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E19">
         <v>224</v>
@@ -1478,7 +1511,7 @@
         <v>7</v>
       </c>
       <c r="G19" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
         <v>22</v>
@@ -1522,7 +1555,7 @@
         <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E20">
         <v>224</v>
@@ -1531,7 +1564,7 @@
         <v>7</v>
       </c>
       <c r="G20" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
         <v>22</v>
@@ -1677,7 +1710,7 @@
         <v>4</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I24" t="s">
         <v>25</v>
@@ -1698,7 +1731,7 @@
         <v>4</v>
       </c>
       <c r="U24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
@@ -1742,7 +1775,7 @@
         <v>4</v>
       </c>
       <c r="U25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -1858,7 +1891,7 @@
         <v>4</v>
       </c>
       <c r="G29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I29" t="s">
         <v>25</v>
@@ -1879,7 +1912,7 @@
         <v>4</v>
       </c>
       <c r="U29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
@@ -1923,10 +1956,10 @@
         <v>4</v>
       </c>
       <c r="Q30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -1959,7 +1992,7 @@
         <v>25</v>
       </c>
       <c r="J32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K32">
         <v>74736</v>
@@ -2006,7 +2039,7 @@
         <v>25</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K33" s="3">
         <v>74736</v>
@@ -2042,13 +2075,13 @@
         <v>4</v>
       </c>
       <c r="G34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I34" t="s">
         <v>25</v>
       </c>
       <c r="J34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K34">
         <v>263416</v>
@@ -2063,7 +2096,7 @@
         <v>4</v>
       </c>
       <c r="U34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
@@ -2092,7 +2125,7 @@
         <v>25</v>
       </c>
       <c r="J35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K35">
         <v>263416</v>
@@ -2107,10 +2140,10 @@
         <v>4</v>
       </c>
       <c r="Q35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -2140,10 +2173,10 @@
         <v>22</v>
       </c>
       <c r="I37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K37">
         <v>21209884</v>
@@ -2193,10 +2226,10 @@
         <v>22</v>
       </c>
       <c r="I38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K38">
         <v>23599260</v>
@@ -2228,7 +2261,7 @@
         <v>17</v>
       </c>
       <c r="C39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D39" t="s">
         <v>26</v>
@@ -2246,10 +2279,10 @@
         <v>22</v>
       </c>
       <c r="I39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K39">
         <v>33156380</v>
@@ -2299,10 +2332,10 @@
         <v>22</v>
       </c>
       <c r="I40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K40">
         <v>61947052</v>
@@ -2334,7 +2367,7 @@
         <v>17</v>
       </c>
       <c r="C41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D41" t="s">
         <v>26</v>
@@ -2352,10 +2385,10 @@
         <v>22</v>
       </c>
       <c r="I41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K41">
         <v>23001820</v>
@@ -2405,10 +2438,10 @@
         <v>22</v>
       </c>
       <c r="I42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K42">
         <v>30169564</v>
@@ -2458,10 +2491,10 @@
         <v>22</v>
       </c>
       <c r="I43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K43">
         <v>58840540</v>
@@ -2512,10 +2545,10 @@
         <v>22</v>
       </c>
       <c r="I45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K45">
         <v>74736</v>
@@ -2559,10 +2592,10 @@
         <v>35</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K46" s="3">
         <v>74736</v>
@@ -2598,13 +2631,13 @@
         <v>4</v>
       </c>
       <c r="G47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K47">
         <v>263416</v>
@@ -2619,7 +2652,7 @@
         <v>4</v>
       </c>
       <c r="U47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.3">
@@ -2645,10 +2678,10 @@
         <v>35</v>
       </c>
       <c r="I48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K48">
         <v>263416</v>
@@ -2663,206 +2696,1538 @@
         <v>4</v>
       </c>
       <c r="Q48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U48" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>61</v>
+      </c>
+      <c r="B50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" t="s">
+        <v>34</v>
+      </c>
+      <c r="D50" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50">
+        <v>224</v>
+      </c>
+      <c r="F50">
+        <v>7</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>22</v>
+      </c>
+      <c r="I50" t="s">
+        <v>44</v>
+      </c>
+      <c r="J50" t="s">
+        <v>44</v>
+      </c>
+      <c r="K50">
+        <v>21209884</v>
+      </c>
+      <c r="L50" t="s">
+        <v>20</v>
+      </c>
+      <c r="M50" t="s">
+        <v>20</v>
+      </c>
+      <c r="N50">
+        <v>400</v>
+      </c>
+      <c r="O50">
+        <v>16</v>
+      </c>
+      <c r="P50">
+        <v>4</v>
+      </c>
+      <c r="U50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>62</v>
+      </c>
+      <c r="B51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51">
+        <v>224</v>
+      </c>
+      <c r="F51">
+        <v>7</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>22</v>
+      </c>
+      <c r="I51" t="s">
+        <v>44</v>
+      </c>
+      <c r="J51" t="s">
+        <v>44</v>
+      </c>
+      <c r="K51">
+        <v>23599260</v>
+      </c>
+      <c r="L51" t="s">
+        <v>20</v>
+      </c>
+      <c r="M51" t="s">
+        <v>20</v>
+      </c>
+      <c r="N51">
+        <v>400</v>
+      </c>
+      <c r="O51">
+        <v>16</v>
+      </c>
+      <c r="P51">
+        <v>4</v>
+      </c>
+      <c r="U51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>63</v>
+      </c>
+      <c r="B52" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" t="s">
+        <v>40</v>
+      </c>
+      <c r="D52" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52">
+        <v>224</v>
+      </c>
+      <c r="F52">
+        <v>7</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>22</v>
+      </c>
+      <c r="I52" t="s">
+        <v>44</v>
+      </c>
+      <c r="J52" t="s">
+        <v>44</v>
+      </c>
+      <c r="K52">
+        <v>33156380</v>
+      </c>
+      <c r="L52" t="s">
+        <v>20</v>
+      </c>
+      <c r="M52" t="s">
+        <v>20</v>
+      </c>
+      <c r="N52">
+        <v>400</v>
+      </c>
+      <c r="O52">
+        <v>16</v>
+      </c>
+      <c r="P52">
+        <v>4</v>
+      </c>
+      <c r="U52" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>64</v>
+      </c>
+      <c r="B53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" t="s">
+        <v>34</v>
+      </c>
+      <c r="D53" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53">
+        <v>224</v>
+      </c>
+      <c r="F53">
+        <v>7</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>22</v>
+      </c>
+      <c r="I53" t="s">
+        <v>44</v>
+      </c>
+      <c r="J53" t="s">
+        <v>44</v>
+      </c>
+      <c r="K53">
+        <v>61947052</v>
+      </c>
+      <c r="L53" t="s">
+        <v>20</v>
+      </c>
+      <c r="M53" t="s">
+        <v>20</v>
+      </c>
+      <c r="N53">
+        <v>400</v>
+      </c>
+      <c r="O53">
+        <v>16</v>
+      </c>
+      <c r="P53">
+        <v>4</v>
+      </c>
+      <c r="U53" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>65</v>
+      </c>
+      <c r="B54" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" t="s">
+        <v>41</v>
+      </c>
+      <c r="D54" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54">
+        <v>224</v>
+      </c>
+      <c r="F54">
+        <v>7</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>22</v>
+      </c>
+      <c r="I54" t="s">
+        <v>44</v>
+      </c>
+      <c r="J54" t="s">
+        <v>44</v>
+      </c>
+      <c r="K54">
+        <v>23001820</v>
+      </c>
+      <c r="L54" t="s">
+        <v>20</v>
+      </c>
+      <c r="M54" t="s">
+        <v>20</v>
+      </c>
+      <c r="N54">
+        <v>400</v>
+      </c>
+      <c r="O54">
+        <v>16</v>
+      </c>
+      <c r="P54">
+        <v>4</v>
+      </c>
+      <c r="U54" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>66</v>
+      </c>
+      <c r="B55" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" t="s">
+        <v>34</v>
+      </c>
+      <c r="D55" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55">
+        <v>224</v>
+      </c>
+      <c r="F55">
+        <v>7</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>22</v>
+      </c>
+      <c r="I55" t="s">
+        <v>44</v>
+      </c>
+      <c r="J55" t="s">
+        <v>44</v>
+      </c>
+      <c r="K55">
+        <v>30169564</v>
+      </c>
+      <c r="L55" t="s">
+        <v>20</v>
+      </c>
+      <c r="M55" t="s">
+        <v>20</v>
+      </c>
+      <c r="N55">
+        <v>400</v>
+      </c>
+      <c r="O55">
+        <v>16</v>
+      </c>
+      <c r="P55">
+        <v>4</v>
+      </c>
+      <c r="U55" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>67</v>
+      </c>
+      <c r="B56" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" t="s">
+        <v>34</v>
+      </c>
+      <c r="D56" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56">
+        <v>224</v>
+      </c>
+      <c r="F56">
+        <v>7</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>22</v>
+      </c>
+      <c r="I56" t="s">
+        <v>44</v>
+      </c>
+      <c r="J56" t="s">
+        <v>44</v>
+      </c>
+      <c r="K56">
+        <v>58840540</v>
+      </c>
+      <c r="L56" t="s">
+        <v>20</v>
+      </c>
+      <c r="M56" t="s">
+        <v>20</v>
+      </c>
+      <c r="N56">
+        <v>400</v>
+      </c>
+      <c r="O56">
+        <v>16</v>
+      </c>
+      <c r="P56">
+        <v>4</v>
+      </c>
+      <c r="U56" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>68</v>
+      </c>
+      <c r="B59" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" t="s">
+        <v>34</v>
+      </c>
+      <c r="D59" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59">
+        <v>224</v>
+      </c>
+      <c r="F59">
+        <v>7</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>22</v>
+      </c>
+      <c r="I59" t="s">
+        <v>25</v>
+      </c>
+      <c r="J59" t="s">
+        <v>25</v>
+      </c>
+      <c r="K59">
+        <v>2297996</v>
+      </c>
+      <c r="L59" t="s">
+        <v>20</v>
+      </c>
+      <c r="M59" t="s">
+        <v>20</v>
+      </c>
+      <c r="N59">
+        <v>400</v>
+      </c>
+      <c r="O59">
+        <v>16</v>
+      </c>
+      <c r="P59">
+        <v>4</v>
+      </c>
+      <c r="U59" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>69</v>
+      </c>
+      <c r="B60" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60">
+        <v>224</v>
+      </c>
+      <c r="F60">
+        <v>7</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>22</v>
+      </c>
+      <c r="I60" t="s">
+        <v>25</v>
+      </c>
+      <c r="J60" t="s">
+        <v>25</v>
+      </c>
+      <c r="K60">
+        <v>4687372</v>
+      </c>
+      <c r="L60" t="s">
+        <v>20</v>
+      </c>
+      <c r="M60" t="s">
+        <v>20</v>
+      </c>
+      <c r="N60">
+        <v>400</v>
+      </c>
+      <c r="O60">
+        <v>16</v>
+      </c>
+      <c r="P60">
+        <v>4</v>
+      </c>
+      <c r="U60" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>70</v>
+      </c>
+      <c r="B61" t="s">
+        <v>38</v>
+      </c>
+      <c r="C61" t="s">
+        <v>40</v>
+      </c>
+      <c r="D61" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61">
+        <v>224</v>
+      </c>
+      <c r="F61">
+        <v>7</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>22</v>
+      </c>
+      <c r="I61" t="s">
+        <v>25</v>
+      </c>
+      <c r="J61" t="s">
+        <v>25</v>
+      </c>
+      <c r="K61">
+        <v>14244492</v>
+      </c>
+      <c r="L61" t="s">
+        <v>20</v>
+      </c>
+      <c r="M61" t="s">
+        <v>20</v>
+      </c>
+      <c r="N61">
+        <v>400</v>
+      </c>
+      <c r="O61">
+        <v>16</v>
+      </c>
+      <c r="P61">
+        <v>4</v>
+      </c>
+      <c r="U61" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>71</v>
+      </c>
+      <c r="B62" t="s">
+        <v>38</v>
+      </c>
+      <c r="C62" t="s">
+        <v>34</v>
+      </c>
+      <c r="D62" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62">
+        <v>224</v>
+      </c>
+      <c r="F62">
+        <v>7</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>22</v>
+      </c>
+      <c r="I62" t="s">
+        <v>25</v>
+      </c>
+      <c r="J62" t="s">
+        <v>25</v>
+      </c>
+      <c r="K62">
+        <v>52472588</v>
+      </c>
+      <c r="L62" t="s">
+        <v>20</v>
+      </c>
+      <c r="M62" t="s">
+        <v>20</v>
+      </c>
+      <c r="N62">
+        <v>400</v>
+      </c>
+      <c r="O62">
+        <v>16</v>
+      </c>
+      <c r="P62">
+        <v>4</v>
+      </c>
+      <c r="U62" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>72</v>
+      </c>
+      <c r="B63" t="s">
+        <v>38</v>
+      </c>
+      <c r="C63" t="s">
+        <v>41</v>
+      </c>
+      <c r="D63" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63">
+        <v>224</v>
+      </c>
+      <c r="F63">
+        <v>7</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>22</v>
+      </c>
+      <c r="I63" t="s">
+        <v>25</v>
+      </c>
+      <c r="J63" t="s">
+        <v>25</v>
+      </c>
+      <c r="K63">
+        <v>4089932</v>
+      </c>
+      <c r="L63" t="s">
+        <v>20</v>
+      </c>
+      <c r="M63" t="s">
+        <v>20</v>
+      </c>
+      <c r="N63">
+        <v>400</v>
+      </c>
+      <c r="O63">
+        <v>16</v>
+      </c>
+      <c r="P63">
+        <v>4</v>
+      </c>
+      <c r="U63" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="B64" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C64" t="s">
         <v>34</v>
       </c>
       <c r="D64" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E64">
+        <v>224</v>
+      </c>
+      <c r="F64">
+        <v>7</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>22</v>
+      </c>
+      <c r="I64" t="s">
+        <v>25</v>
+      </c>
+      <c r="J64" t="s">
+        <v>25</v>
+      </c>
+      <c r="K64">
+        <v>11257676</v>
+      </c>
+      <c r="L64" t="s">
+        <v>20</v>
+      </c>
+      <c r="M64" t="s">
+        <v>20</v>
+      </c>
+      <c r="N64">
+        <v>400</v>
+      </c>
+      <c r="O64">
+        <v>16</v>
+      </c>
+      <c r="P64">
+        <v>4</v>
+      </c>
+      <c r="U64" t="s">
         <v>32</v>
       </c>
-      <c r="F64">
-        <v>4</v>
-      </c>
-      <c r="G64" t="s">
-        <v>21</v>
-      </c>
-      <c r="H64" t="s">
-        <v>22</v>
-      </c>
-      <c r="J64" t="s">
-        <v>25</v>
-      </c>
-      <c r="L64" t="s">
-        <v>20</v>
-      </c>
-      <c r="M64" t="s">
-        <v>20</v>
-      </c>
-      <c r="N64">
-        <v>400</v>
-      </c>
-      <c r="O64">
-        <v>16</v>
-      </c>
-      <c r="P64">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C65" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D65" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E65">
-        <v>32</v>
+        <v>224</v>
       </c>
       <c r="F65">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G65" t="s">
-        <v>35</v>
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>22</v>
+      </c>
+      <c r="I65" t="s">
+        <v>25</v>
       </c>
       <c r="J65" t="s">
-        <v>36</v>
+        <v>25</v>
+      </c>
+      <c r="K65">
+        <v>39928652</v>
+      </c>
+      <c r="L65" t="s">
+        <v>20</v>
+      </c>
+      <c r="M65" t="s">
+        <v>20</v>
       </c>
       <c r="N65">
         <v>400</v>
       </c>
       <c r="O65">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="P65">
         <v>4</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>45</v>
-      </c>
-      <c r="B66" t="s">
-        <v>39</v>
-      </c>
-      <c r="C66" t="s">
-        <v>19</v>
-      </c>
-      <c r="D66" t="s">
-        <v>26</v>
-      </c>
-      <c r="E66">
-        <v>32</v>
-      </c>
-      <c r="F66">
-        <v>4</v>
-      </c>
-      <c r="G66" t="s">
-        <v>38</v>
-      </c>
-      <c r="J66" t="s">
-        <v>36</v>
-      </c>
-      <c r="N66">
-        <v>400</v>
-      </c>
-      <c r="O66">
-        <v>256</v>
-      </c>
-      <c r="P66">
-        <v>4</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>46</v>
-      </c>
-      <c r="B67" t="s">
-        <v>39</v>
-      </c>
-      <c r="C67" t="s">
-        <v>19</v>
-      </c>
-      <c r="D67" t="s">
-        <v>26</v>
-      </c>
-      <c r="E67">
-        <v>32</v>
-      </c>
-      <c r="F67">
-        <v>4</v>
-      </c>
-      <c r="G67" t="s">
-        <v>35</v>
-      </c>
-      <c r="J67" t="s">
-        <v>36</v>
-      </c>
-      <c r="N67">
-        <v>400</v>
-      </c>
-      <c r="O67">
-        <v>256</v>
-      </c>
-      <c r="P67">
-        <v>4</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="U65" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68">
+        <v>75</v>
+      </c>
+      <c r="B68" t="s">
         <v>47</v>
       </c>
-      <c r="B68" t="s">
-        <v>39</v>
-      </c>
       <c r="C68" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D68" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E68">
-        <v>32</v>
+        <v>224</v>
       </c>
       <c r="F68">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G68" t="s">
         <v>35</v>
       </c>
+      <c r="H68" t="s">
+        <v>22</v>
+      </c>
+      <c r="I68" t="s">
+        <v>25</v>
+      </c>
       <c r="J68" t="s">
-        <v>36</v>
+        <v>25</v>
+      </c>
+      <c r="K68">
+        <v>1700556</v>
+      </c>
+      <c r="L68" t="s">
+        <v>20</v>
+      </c>
+      <c r="M68" t="s">
+        <v>20</v>
       </c>
       <c r="N68">
         <v>400</v>
       </c>
       <c r="O68">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="P68">
         <v>4</v>
       </c>
-      <c r="Q68" t="s">
-        <v>37</v>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>76</v>
+      </c>
+      <c r="B69" t="s">
+        <v>47</v>
+      </c>
+      <c r="C69" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" t="s">
+        <v>26</v>
+      </c>
+      <c r="E69">
+        <v>224</v>
+      </c>
+      <c r="F69">
+        <v>7</v>
+      </c>
+      <c r="G69" t="s">
+        <v>35</v>
+      </c>
+      <c r="H69" t="s">
+        <v>22</v>
+      </c>
+      <c r="I69" t="s">
+        <v>25</v>
+      </c>
+      <c r="J69" t="s">
+        <v>25</v>
+      </c>
+      <c r="K69">
+        <v>1700556</v>
+      </c>
+      <c r="L69" t="s">
+        <v>20</v>
+      </c>
+      <c r="M69" t="s">
+        <v>20</v>
+      </c>
+      <c r="N69">
+        <v>400</v>
+      </c>
+      <c r="O69">
+        <v>16</v>
+      </c>
+      <c r="P69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>77</v>
+      </c>
+      <c r="B70" t="s">
+        <v>47</v>
+      </c>
+      <c r="C70" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" t="s">
+        <v>26</v>
+      </c>
+      <c r="E70">
+        <v>224</v>
+      </c>
+      <c r="F70">
+        <v>7</v>
+      </c>
+      <c r="G70" t="s">
+        <v>35</v>
+      </c>
+      <c r="H70" t="s">
+        <v>22</v>
+      </c>
+      <c r="I70" t="s">
+        <v>25</v>
+      </c>
+      <c r="J70" t="s">
+        <v>25</v>
+      </c>
+      <c r="K70">
+        <v>2297996</v>
+      </c>
+      <c r="L70" t="s">
+        <v>20</v>
+      </c>
+      <c r="M70" t="s">
+        <v>20</v>
+      </c>
+      <c r="N70">
+        <v>400</v>
+      </c>
+      <c r="O70">
+        <v>16</v>
+      </c>
+      <c r="P70">
+        <v>4</v>
+      </c>
+      <c r="U70" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>78</v>
+      </c>
+      <c r="B71" t="s">
+        <v>47</v>
+      </c>
+      <c r="C71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" t="s">
+        <v>26</v>
+      </c>
+      <c r="E71">
+        <v>224</v>
+      </c>
+      <c r="F71">
+        <v>7</v>
+      </c>
+      <c r="G71" t="s">
+        <v>35</v>
+      </c>
+      <c r="H71" t="s">
+        <v>22</v>
+      </c>
+      <c r="I71" t="s">
+        <v>25</v>
+      </c>
+      <c r="J71" t="s">
+        <v>44</v>
+      </c>
+      <c r="K71">
+        <v>1737596</v>
+      </c>
+      <c r="L71" t="s">
+        <v>20</v>
+      </c>
+      <c r="M71" t="s">
+        <v>20</v>
+      </c>
+      <c r="N71">
+        <v>400</v>
+      </c>
+      <c r="O71">
+        <v>16</v>
+      </c>
+      <c r="P71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>79</v>
+      </c>
+      <c r="B75" t="s">
+        <v>38</v>
+      </c>
+      <c r="C75" t="s">
+        <v>34</v>
+      </c>
+      <c r="D75" t="s">
+        <v>19</v>
+      </c>
+      <c r="E75">
+        <v>224</v>
+      </c>
+      <c r="F75">
+        <v>7</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>22</v>
+      </c>
+      <c r="I75" t="s">
+        <v>25</v>
+      </c>
+      <c r="J75" t="s">
+        <v>44</v>
+      </c>
+      <c r="K75">
+        <v>2335036</v>
+      </c>
+      <c r="L75" t="s">
+        <v>20</v>
+      </c>
+      <c r="M75" t="s">
+        <v>20</v>
+      </c>
+      <c r="N75">
+        <v>400</v>
+      </c>
+      <c r="O75">
+        <v>16</v>
+      </c>
+      <c r="P75">
+        <v>4</v>
+      </c>
+      <c r="U75" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>80</v>
+      </c>
+      <c r="B76" t="s">
+        <v>38</v>
+      </c>
+      <c r="C76" t="s">
+        <v>19</v>
+      </c>
+      <c r="D76" t="s">
+        <v>19</v>
+      </c>
+      <c r="E76">
+        <v>224</v>
+      </c>
+      <c r="F76">
+        <v>7</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>22</v>
+      </c>
+      <c r="I76" t="s">
+        <v>25</v>
+      </c>
+      <c r="J76" t="s">
+        <v>44</v>
+      </c>
+      <c r="K76">
+        <v>4724412</v>
+      </c>
+      <c r="L76" t="s">
+        <v>20</v>
+      </c>
+      <c r="M76" t="s">
+        <v>20</v>
+      </c>
+      <c r="N76">
+        <v>400</v>
+      </c>
+      <c r="O76">
+        <v>16</v>
+      </c>
+      <c r="P76">
+        <v>4</v>
+      </c>
+      <c r="U76" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>81</v>
+      </c>
+      <c r="B77" t="s">
+        <v>38</v>
+      </c>
+      <c r="C77" t="s">
+        <v>40</v>
+      </c>
+      <c r="D77" t="s">
+        <v>19</v>
+      </c>
+      <c r="E77">
+        <v>224</v>
+      </c>
+      <c r="F77">
+        <v>7</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>22</v>
+      </c>
+      <c r="I77" t="s">
+        <v>25</v>
+      </c>
+      <c r="J77" t="s">
+        <v>44</v>
+      </c>
+      <c r="K77">
+        <v>14281532</v>
+      </c>
+      <c r="L77" t="s">
+        <v>20</v>
+      </c>
+      <c r="M77" t="s">
+        <v>20</v>
+      </c>
+      <c r="N77">
+        <v>400</v>
+      </c>
+      <c r="O77">
+        <v>16</v>
+      </c>
+      <c r="P77">
+        <v>4</v>
+      </c>
+      <c r="U77" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>82</v>
+      </c>
+      <c r="B78" t="s">
+        <v>38</v>
+      </c>
+      <c r="C78" t="s">
+        <v>34</v>
+      </c>
+      <c r="D78" t="s">
+        <v>19</v>
+      </c>
+      <c r="E78">
+        <v>224</v>
+      </c>
+      <c r="F78">
+        <v>7</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>22</v>
+      </c>
+      <c r="I78" t="s">
+        <v>25</v>
+      </c>
+      <c r="J78" t="s">
+        <v>44</v>
+      </c>
+      <c r="K78">
+        <v>52509628</v>
+      </c>
+      <c r="L78" t="s">
+        <v>20</v>
+      </c>
+      <c r="M78" t="s">
+        <v>20</v>
+      </c>
+      <c r="N78">
+        <v>400</v>
+      </c>
+      <c r="O78">
+        <v>16</v>
+      </c>
+      <c r="P78">
+        <v>4</v>
+      </c>
+      <c r="U78" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>83</v>
+      </c>
+      <c r="B79" t="s">
+        <v>38</v>
+      </c>
+      <c r="C79" t="s">
+        <v>41</v>
+      </c>
+      <c r="D79" t="s">
+        <v>19</v>
+      </c>
+      <c r="E79">
+        <v>224</v>
+      </c>
+      <c r="F79">
+        <v>7</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>22</v>
+      </c>
+      <c r="I79" t="s">
+        <v>25</v>
+      </c>
+      <c r="J79" t="s">
+        <v>44</v>
+      </c>
+      <c r="K79">
+        <v>4126972</v>
+      </c>
+      <c r="L79" t="s">
+        <v>20</v>
+      </c>
+      <c r="M79" t="s">
+        <v>20</v>
+      </c>
+      <c r="N79">
+        <v>400</v>
+      </c>
+      <c r="O79">
+        <v>16</v>
+      </c>
+      <c r="P79">
+        <v>4</v>
+      </c>
+      <c r="U79" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>84</v>
+      </c>
+      <c r="B80" t="s">
+        <v>38</v>
+      </c>
+      <c r="C80" t="s">
+        <v>34</v>
+      </c>
+      <c r="D80" t="s">
+        <v>19</v>
+      </c>
+      <c r="E80">
+        <v>224</v>
+      </c>
+      <c r="F80">
+        <v>7</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>22</v>
+      </c>
+      <c r="I80" t="s">
+        <v>25</v>
+      </c>
+      <c r="J80" t="s">
+        <v>44</v>
+      </c>
+      <c r="K80">
+        <v>11294716</v>
+      </c>
+      <c r="L80" t="s">
+        <v>20</v>
+      </c>
+      <c r="M80" t="s">
+        <v>20</v>
+      </c>
+      <c r="N80">
+        <v>400</v>
+      </c>
+      <c r="O80">
+        <v>16</v>
+      </c>
+      <c r="P80">
+        <v>4</v>
+      </c>
+      <c r="U80" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>85</v>
+      </c>
+      <c r="B81" t="s">
+        <v>38</v>
+      </c>
+      <c r="C81" t="s">
+        <v>34</v>
+      </c>
+      <c r="D81" t="s">
+        <v>19</v>
+      </c>
+      <c r="E81">
+        <v>224</v>
+      </c>
+      <c r="F81">
+        <v>7</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>22</v>
+      </c>
+      <c r="I81" t="s">
+        <v>25</v>
+      </c>
+      <c r="J81" t="s">
+        <v>44</v>
+      </c>
+      <c r="K81">
+        <v>39965692</v>
+      </c>
+      <c r="L81" t="s">
+        <v>20</v>
+      </c>
+      <c r="M81" t="s">
+        <v>20</v>
+      </c>
+      <c r="N81">
+        <v>400</v>
+      </c>
+      <c r="O81">
+        <v>16</v>
+      </c>
+      <c r="P81">
+        <v>4</v>
+      </c>
+      <c r="U81" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>86</v>
+      </c>
+      <c r="B85" t="s">
+        <v>48</v>
+      </c>
+      <c r="C85" t="s">
+        <v>18</v>
+      </c>
+      <c r="D85" t="s">
+        <v>19</v>
+      </c>
+      <c r="E85">
+        <v>224</v>
+      </c>
+      <c r="F85">
+        <v>7</v>
+      </c>
+      <c r="G85" t="s">
+        <v>35</v>
+      </c>
+      <c r="H85" t="s">
+        <v>22</v>
+      </c>
+      <c r="I85" t="s">
+        <v>25</v>
+      </c>
+      <c r="J85" t="s">
+        <v>25</v>
+      </c>
+      <c r="K85">
+        <v>1700556</v>
+      </c>
+      <c r="L85" t="s">
+        <v>20</v>
+      </c>
+      <c r="M85" t="s">
+        <v>20</v>
+      </c>
+      <c r="N85">
+        <v>400</v>
+      </c>
+      <c r="O85">
+        <v>16</v>
+      </c>
+      <c r="P85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>87</v>
+      </c>
+      <c r="B86" t="s">
+        <v>48</v>
+      </c>
+      <c r="C86" t="s">
+        <v>18</v>
+      </c>
+      <c r="D86" t="s">
+        <v>26</v>
+      </c>
+      <c r="E86">
+        <v>224</v>
+      </c>
+      <c r="F86">
+        <v>7</v>
+      </c>
+      <c r="G86" t="s">
+        <v>35</v>
+      </c>
+      <c r="H86" t="s">
+        <v>22</v>
+      </c>
+      <c r="I86" t="s">
+        <v>25</v>
+      </c>
+      <c r="J86" t="s">
+        <v>25</v>
+      </c>
+      <c r="K86">
+        <v>1700556</v>
+      </c>
+      <c r="L86" t="s">
+        <v>20</v>
+      </c>
+      <c r="M86" t="s">
+        <v>20</v>
+      </c>
+      <c r="N86">
+        <v>400</v>
+      </c>
+      <c r="O86">
+        <v>16</v>
+      </c>
+      <c r="P86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>88</v>
+      </c>
+      <c r="B87" t="s">
+        <v>48</v>
+      </c>
+      <c r="C87" t="s">
+        <v>18</v>
+      </c>
+      <c r="D87" t="s">
+        <v>26</v>
+      </c>
+      <c r="E87">
+        <v>224</v>
+      </c>
+      <c r="F87">
+        <v>7</v>
+      </c>
+      <c r="G87" t="s">
+        <v>35</v>
+      </c>
+      <c r="H87" t="s">
+        <v>22</v>
+      </c>
+      <c r="I87" t="s">
+        <v>25</v>
+      </c>
+      <c r="J87" t="s">
+        <v>25</v>
+      </c>
+      <c r="K87">
+        <v>2297996</v>
+      </c>
+      <c r="L87" t="s">
+        <v>20</v>
+      </c>
+      <c r="M87" t="s">
+        <v>20</v>
+      </c>
+      <c r="N87">
+        <v>400</v>
+      </c>
+      <c r="O87">
+        <v>16</v>
+      </c>
+      <c r="P87">
+        <v>4</v>
+      </c>
+      <c r="U87" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>89</v>
+      </c>
+      <c r="B88" t="s">
+        <v>48</v>
+      </c>
+      <c r="C88" t="s">
+        <v>18</v>
+      </c>
+      <c r="D88" t="s">
+        <v>26</v>
+      </c>
+      <c r="E88">
+        <v>224</v>
+      </c>
+      <c r="F88">
+        <v>7</v>
+      </c>
+      <c r="G88" t="s">
+        <v>35</v>
+      </c>
+      <c r="H88" t="s">
+        <v>22</v>
+      </c>
+      <c r="I88" t="s">
+        <v>25</v>
+      </c>
+      <c r="J88" t="s">
+        <v>44</v>
+      </c>
+      <c r="K88">
+        <v>1737596</v>
+      </c>
+      <c r="L88" t="s">
+        <v>20</v>
+      </c>
+      <c r="M88" t="s">
+        <v>20</v>
+      </c>
+      <c r="N88">
+        <v>400</v>
+      </c>
+      <c r="O88">
+        <v>16</v>
+      </c>
+      <c r="P88">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
